--- a/biology/Botanique/Georg_Heinrich_Mettenius/Georg_Heinrich_Mettenius.xlsx
+++ b/biology/Botanique/Georg_Heinrich_Mettenius/Georg_Heinrich_Mettenius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Heinrich Mettenius, né le 24 novembre 1823 à Francfort-sur-le-Main et mort le 18 août 1866 à Leipzig, est un botaniste allemand. Il était le gendre du botaniste Alexander Braun.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mettenius est issu d'une famille aisée de commerçants. Il obtient son doctorat de médecine en 1845 à l'Université d'Heidelberg. Sur les conseils de Georg Fresenius il commence des études de botanique ; il entreprend en 1846 un voyage d'études qui le mène à Heligoland, Berlin, Vienne et l'Adriatique. Il se fait une spécialité des algues marines de Fionie et d'Heligoland.
 De retour en Allemagne en 1848 après la mort de son père, il recherche une habilitation de botanique en tant que Privatdozent à Heildelberg. Il est ensuite nommé en 1850 professeur de botanique à l'université de Freiburg. Il devient professeur en titre de l'université de Leipzig en 1852 ainsi que directeur de son jardin botanique, succédant à Gustav Kunze (1793-1851). À Fribourg et à Leipzig il est directeur du jardin botanique. Il est, à 42 ans, l'une des premières victimes de l'épidémie de choléra.
@@ -544,7 +558,9 @@
           <t>Publications (liste partielle)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sauf mention contraire, les ouvrages de Mettenius sont en allemand.
 Beiträge zur Kenntniss der Azollen, 1836, 18 p.
@@ -586,7 +602,9 @@
           <t>Espèces dédiées à Mettenius</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les noms de la famille Metteniusaceae et du genre botanique Metteniusa (par Gustav Hermann Karsten) lui ont été dédiés, ainsi que de nombreuses espèces.
 </t>
